--- a/news/data/flood-index-thairath.xlsx
+++ b/news/data/flood-index-thairath.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C556"/>
+  <dimension ref="A1:D556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>tags</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publish_date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>['news', 'local', '2833704']</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31 ธ.ค. 2567 06:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +493,11 @@
           <t>['scoop', 'theissue', '2831296']</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16 ธ.ค. 2567 17:28 น.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +515,11 @@
           <t>['news', 'local', 'south', '2831171']</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16 ธ.ค. 2567 08:13 น.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +537,11 @@
           <t>['news', 'local', 'south', '2831027']</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15 ธ.ค. 2567 09:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +559,11 @@
           <t>['news', 'local', 'south', '2831019']</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15 ธ.ค. 2567 08:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -551,6 +581,11 @@
           <t>['news', 'politic', '2828629']</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>02 ธ.ค. 2567 05:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,6 +603,11 @@
           <t>['news', 'local', 'south', '2828057']</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28 พ.ย. 2567 09:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -585,6 +625,11 @@
           <t>['news', 'local', 'south', '2828044']</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28 พ.ย. 2567 08:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,6 +647,11 @@
           <t>['news', 'local', 'north', '2827207']</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23 พ.ย. 2567 16:54 น.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -619,6 +669,11 @@
           <t>['news', 'local', 'north', '2824502']</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>08 พ.ย. 2567 14:56 น.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -636,6 +691,11 @@
           <t>['news', 'local', '2823135']</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>01 พ.ย. 2567 09:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -653,6 +713,11 @@
           <t>['news', 'local', 'north', '2822490']</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29 ต.ค. 2567 07:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,6 +735,11 @@
           <t>['news', 'local', 'north', '2822392']</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28 ต.ค. 2567 13:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -687,6 +757,11 @@
           <t>['news', 'local', '2822230']</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28 ต.ค. 2567 06:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -704,6 +779,11 @@
           <t>['news', 'local', '2822051']</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26 ต.ค. 2567 10:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -721,6 +801,11 @@
           <t>['news', 'local', '2821847']</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25 ต.ค. 2567 08:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,6 +823,11 @@
           <t>['news', 'local', '2821700']</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25 ต.ค. 2567 05:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -755,6 +845,11 @@
           <t>['news', 'local', '2821681']</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24 ต.ค. 2567 10:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -772,6 +867,11 @@
           <t>['news', 'politic', '2821118']</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22 ต.ค. 2567 04:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -789,6 +889,11 @@
           <t>['news', 'local', '2820956']</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20 ต.ค. 2567 09:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -806,6 +911,11 @@
           <t>['news', 'local', '2820578']</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17 ต.ค. 2567 18:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -823,6 +933,11 @@
           <t>['news', 'local', '2820466']</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17 ต.ค. 2567 14:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -840,6 +955,11 @@
           <t>['news', 'local', '2820467']</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17 ต.ค. 2567 10:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -857,6 +977,11 @@
           <t>['news', 'local', 'north', '2820299']</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16 ต.ค. 2567 14:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -874,6 +999,11 @@
           <t>['news', 'local', '2819983']</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15 ต.ค. 2567 06:33 น.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -891,6 +1021,11 @@
           <t>['news', 'local', '2819919']</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15 ต.ค. 2567 06:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -908,6 +1043,11 @@
           <t>['news', 'local', '2819866']</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15 ต.ค. 2567 05:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -925,6 +1065,11 @@
           <t>['news', 'local', '2819710']</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14 ต.ค. 2567 06:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -942,6 +1087,11 @@
           <t>['news', 'local', 'north', '2819795']</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13 ต.ค. 2567 20:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -959,6 +1109,11 @@
           <t>['news', 'local', '2819688']</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13 ต.ค. 2567 06:33 น.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -976,6 +1131,11 @@
           <t>['news', 'local', '2819572']</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12 ต.ค. 2567 07:16 น.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -993,6 +1153,11 @@
           <t>['news', 'local', '2819461']</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 14:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1010,6 +1175,11 @@
           <t>['news', 'local', '2819435']</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 13:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1027,6 +1197,11 @@
           <t>['news', 'local', '2819395']</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 09:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1044,6 +1219,11 @@
           <t>['news', 'local', 'bangkok', '2819385']</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 09:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1061,6 +1241,11 @@
           <t>['news', 'local', 'north', '2819371']</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 07:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1078,6 +1263,11 @@
           <t>['news', 'local', '2819382']</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 07:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1095,6 +1285,11 @@
           <t>['news', 'local', 'bangkok', '2819394']</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 07:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1112,6 +1307,11 @@
           <t>['news', 'local', '2819234']</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11 ต.ค. 2567 05:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1129,6 +1329,11 @@
           <t>['news', 'local', '2819168']</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10 ต.ค. 2567 08:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1146,6 +1351,11 @@
           <t>['news', 'local', '2819173']</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10 ต.ค. 2567 07:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1163,6 +1373,11 @@
           <t>['news', 'local', '2819007']</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10 ต.ค. 2567 06:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1180,6 +1395,11 @@
           <t>['news', 'local', '2819030']</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10 ต.ค. 2567 05:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1197,6 +1417,11 @@
           <t>['news', 'local', '2819044']</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>09 ต.ค. 2567 13:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1214,6 +1439,11 @@
           <t>['news', 'local', 'north', '2819031']</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>09 ต.ค. 2567 12:52 น.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1231,6 +1461,11 @@
           <t>['news', 'local', '2819013']</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>09 ต.ค. 2567 11:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1248,6 +1483,11 @@
           <t>['news', 'local', '2819001']</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>09 ต.ค. 2567 11:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1265,6 +1505,11 @@
           <t>['news', 'local', '2818961']</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>09 ต.ค. 2567 07:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1282,6 +1527,11 @@
           <t>['news', 'local', '2818952']</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>09 ต.ค. 2567 07:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1299,6 +1549,11 @@
           <t>['news', 'local', '2818852']</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>09 ต.ค. 2567 06:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1316,6 +1571,11 @@
           <t>['news', 'local', 'central', '2818936']</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 22:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1333,6 +1593,11 @@
           <t>['news', 'local', 'north', '2818924']</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 19:49 น.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1350,6 +1615,11 @@
           <t>['news', 'local', '2818898']</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 17:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1367,6 +1637,11 @@
           <t>['news', 'local', 'north', '2818893']</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 16:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1384,6 +1659,11 @@
           <t>['news', 'local', '2818888']</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 16:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1401,6 +1681,11 @@
           <t>['news', 'local', '2818805']</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 11:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1418,6 +1703,11 @@
           <t>['news', 'local', '2818759']</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 08:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1435,6 +1725,11 @@
           <t>['news', 'local', '2818750']</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 07:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1452,6 +1747,11 @@
           <t>['news', 'local', 'central', '2818768']</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 07:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1469,6 +1769,11 @@
           <t>['news', 'politic', '2818594']</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>08 ต.ค. 2567 06:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1486,6 +1791,11 @@
           <t>['scoop', 'theissue', '2818679']</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 16:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1503,6 +1813,11 @@
           <t>['news', 'society', '2818671']</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 15:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1520,6 +1835,11 @@
           <t>['news', 'local', 'north', '2818664']</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 14:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1537,6 +1857,11 @@
           <t>['news', 'local', 'north', '2818644']</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 13:27 น.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1554,6 +1879,11 @@
           <t>['news', 'local', '2818593']</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 10:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1571,6 +1901,11 @@
           <t>['news', 'local', '2818565']</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 07:56 น.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1588,6 +1923,11 @@
           <t>['news', 'local', '2818562']</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 07:22 น.</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1605,6 +1945,11 @@
           <t>['news', 'local', '2818576']</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 06:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1622,6 +1967,11 @@
           <t>['news', 'local', '2818564']</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 06:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1639,6 +1989,11 @@
           <t>['news', 'local', '2818483']</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 05:33 น.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1656,6 +2011,11 @@
           <t>['news', 'local', '2818583']</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 05:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1673,6 +2033,11 @@
           <t>['news', 'local', '2818585']</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>07 ต.ค. 2567 05:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1690,6 +2055,11 @@
           <t>['news', 'local', '2818535']</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 20:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1707,6 +2077,11 @@
           <t>['news', 'local', '2818530']</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 19:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1724,6 +2099,11 @@
           <t>['news', 'local', '2818499']</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 15:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1741,6 +2121,11 @@
           <t>['news', 'local', '2818485']</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 14:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1758,6 +2143,11 @@
           <t>['news', 'local', '2818484']</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 14:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1775,6 +2165,11 @@
           <t>['news', 'local', '2818474']</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 14:04 น.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1792,6 +2187,11 @@
           <t>['news', 'local', '2818473']</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 13:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1809,6 +2209,11 @@
           <t>['news', 'local', '2818444']</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 09:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1826,6 +2231,11 @@
           <t>['news', 'local', 'north', '2818437']</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 09:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1843,6 +2253,11 @@
           <t>['news', 'local', 'north', '2818427']</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 08:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1860,6 +2275,11 @@
           <t>['news', 'local', '2818423']</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 06:33 น.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1877,6 +2297,11 @@
           <t>['news', 'local', '2818439']</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 05:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1894,6 +2319,11 @@
           <t>['news', 'local', '2818438']</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>06 ต.ค. 2567 05:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1911,6 +2341,11 @@
           <t>['news', 'local', '2818410']</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 22:29 น.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1928,6 +2363,11 @@
           <t>['news', 'local', 'north', '2818405']</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 20:02 น.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1945,6 +2385,11 @@
           <t>['news', 'local', 'north', '2818369']</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 19:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1962,6 +2407,11 @@
           <t>['news', 'local', 'north', '2818357']</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 18:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1979,6 +2429,11 @@
           <t>['news', 'local', 'north', '2818353']</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 15:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1996,6 +2451,11 @@
           <t>['news', 'local', '2818354']</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 15:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2013,6 +2473,11 @@
           <t>['news', 'local', 'north', '2818336']</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 14:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2030,6 +2495,11 @@
           <t>['news', 'society', '2818320']</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 11:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2047,6 +2517,11 @@
           <t>['news', 'local', 'north', '2818305']</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 09:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2064,6 +2539,11 @@
           <t>['news', 'local', 'north', '2818290']</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 09:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2081,6 +2561,11 @@
           <t>['news', 'local', 'north', '2818293']</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 08:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2098,6 +2583,11 @@
           <t>['news', 'local', '2818292']</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 07:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2115,6 +2605,11 @@
           <t>['news', 'local', 'north', '2818288']</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 07:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2132,6 +2627,11 @@
           <t>['news', 'local', 'north', '2818308']</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 07:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2149,6 +2649,11 @@
           <t>['news', 'local', 'north', '2818318']</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>05 ต.ค. 2567 07:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2166,6 +2671,11 @@
           <t>['news', 'local', 'north', '2818279']</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 21:34 น.</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2183,6 +2693,11 @@
           <t>['news', 'local', 'north', '2818275']</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 21:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2200,6 +2715,11 @@
           <t>['news', 'local', 'north', '2818262']</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 19:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2217,6 +2737,11 @@
           <t>['news', 'local', 'north', '2818240']</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 17:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2234,6 +2759,11 @@
           <t>['news', 'local', 'north', '2818234']</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 17:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2251,6 +2781,11 @@
           <t>['news', 'local', 'north', '2818212']</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 15:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2268,6 +2803,11 @@
           <t>['news', 'local', '2818189']</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 13:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2285,6 +2825,11 @@
           <t>['news', 'local', 'north', '2818180']</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 13:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2302,6 +2847,11 @@
           <t>['news', 'local', '2818169']</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 11:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2319,6 +2869,11 @@
           <t>['news', 'local', '2818160']</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 11:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2336,6 +2891,11 @@
           <t>['news', 'local', '2818158']</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 11:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2353,6 +2913,11 @@
           <t>['news', 'local', '2818150']</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 10:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2370,6 +2935,11 @@
           <t>['news', 'local', '2818137']</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 09:49 น.</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2387,6 +2957,11 @@
           <t>['news', 'local', '2818130']</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 09:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2404,6 +2979,11 @@
           <t>['news', 'local', 'north', '2818117']</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 08:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2421,6 +3001,11 @@
           <t>['news', 'local', 'north', '2818114']</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 07:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2438,6 +3023,11 @@
           <t>['news', 'local', '2817925']</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>04 ต.ค. 2567 06:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2455,6 +3045,11 @@
           <t>['news', 'local', 'north', '2818081']</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 22:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2472,6 +3067,11 @@
           <t>['news', 'local', 'north', '2818075']</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 21:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2489,6 +3089,11 @@
           <t>['news', 'local', 'north', '2818072']</t>
         </is>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 21:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2506,6 +3111,11 @@
           <t>['news', 'local', 'north', '2818068']</t>
         </is>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 20:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2523,6 +3133,11 @@
           <t>['news', 'local', 'north', '2818030']</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 17:26 น.</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2540,6 +3155,11 @@
           <t>['news', 'local', 'north', '2818011']</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 15:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2557,6 +3177,11 @@
           <t>['news', 'local', 'north', '2817985']</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 14:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2574,6 +3199,11 @@
           <t>['news', 'local', 'north', '2817975']</t>
         </is>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 13:04 น.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2591,6 +3221,11 @@
           <t>['news', 'local', 'north', '2817961']</t>
         </is>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 12:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2608,6 +3243,11 @@
           <t>['news', 'local', 'north', '2817948']</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 11:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2625,6 +3265,11 @@
           <t>['news', 'local', '2817890']</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 07:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2642,6 +3287,11 @@
           <t>['news', 'politic', '2817914']</t>
         </is>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 07:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2659,6 +3309,11 @@
           <t>['news', 'local', '2817735']</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>03 ต.ค. 2567 06:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2676,6 +3331,11 @@
           <t>['news', 'local', '2817740']</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>02 ต.ค. 2567 17:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2693,6 +3353,11 @@
           <t>['news', 'local', 'north', '2817795']</t>
         </is>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>02 ต.ค. 2567 17:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2710,6 +3375,11 @@
           <t>['news', 'local', '2817776']</t>
         </is>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>02 ต.ค. 2567 14:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2727,6 +3397,11 @@
           <t>['news', 'local', 'north', '2817744']</t>
         </is>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>02 ต.ค. 2567 13:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2744,6 +3419,11 @@
           <t>['news', 'local', '2817720']</t>
         </is>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>02 ต.ค. 2567 11:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2761,6 +3441,11 @@
           <t>['news', 'local', '2817656']</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>02 ต.ค. 2567 07:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2778,6 +3463,11 @@
           <t>['news', 'local', '2817479']</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>02 ต.ค. 2567 05:35 น.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2795,6 +3485,11 @@
           <t>['news', 'local', 'north', '2817615']</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>01 ต.ค. 2567 21:42 น.</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2812,6 +3507,11 @@
           <t>['news', 'local', 'north', '2817606']</t>
         </is>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>01 ต.ค. 2567 21:11 น.</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2829,6 +3529,11 @@
           <t>['news', 'local', 'north', '2817599']</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>01 ต.ค. 2567 20:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2846,6 +3551,11 @@
           <t>['news', 'local', 'north', '2817591']</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>01 ต.ค. 2567 19:28 น.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2863,6 +3573,11 @@
           <t>['news', 'local', '2817412']</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>01 ต.ค. 2567 07:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2880,6 +3595,11 @@
           <t>['news', 'local', '2817341']</t>
         </is>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>01 ต.ค. 2567 06:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2897,6 +3617,11 @@
           <t>['news', 'local', 'north', '2817389']</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>30 ก.ย. 2567 20:48 น.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2914,6 +3639,11 @@
           <t>['news', 'local', '2817263']</t>
         </is>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>30 ก.ย. 2567 16:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2931,6 +3661,11 @@
           <t>['news', 'local', '2817199']</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>30 ก.ย. 2567 06:22 น.</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2948,6 +3683,11 @@
           <t>['news', 'local', '2817213']</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>30 ก.ย. 2567 05:49 น.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2965,6 +3705,11 @@
           <t>['news', 'local', '2817211']</t>
         </is>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>30 ก.ย. 2567 05:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2982,6 +3727,11 @@
           <t>['news', 'local', '2817172']</t>
         </is>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>29 ก.ย. 2567 20:35 น.</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2999,6 +3749,11 @@
           <t>['news', 'politic', '2816991']</t>
         </is>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>29 ก.ย. 2567 06:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3016,6 +3771,11 @@
           <t>['news', 'local', '2817072']</t>
         </is>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>29 ก.ย. 2567 06:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3033,6 +3793,11 @@
           <t>['news', 'local', '2817062']</t>
         </is>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>29 ก.ย. 2567 06:02 น.</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3050,6 +3815,11 @@
           <t>['news', 'local', '2817074']</t>
         </is>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>29 ก.ย. 2567 05:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3067,6 +3837,11 @@
           <t>['news', 'local', 'north', '2817036']</t>
         </is>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 20:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3084,6 +3859,11 @@
           <t>['news', 'local', '2817017']</t>
         </is>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 18:34 น.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3101,6 +3881,11 @@
           <t>['news', 'local', 'north', '2816977']</t>
         </is>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 15:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3118,6 +3903,11 @@
           <t>['news', 'local', 'north', '2816900']</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 13:33 น.</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3135,6 +3925,11 @@
           <t>['news', 'local', '2816966']</t>
         </is>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 13:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3152,6 +3947,11 @@
           <t>['news', 'local', '2816951']</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 11:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3169,6 +3969,11 @@
           <t>['news', 'local', '2816942']</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 10:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3186,6 +3991,11 @@
           <t>['news', 'local', '2816932']</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 10:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3203,6 +4013,11 @@
           <t>['news', 'local', '2816924']</t>
         </is>
       </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 09:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3220,6 +4035,11 @@
           <t>['news', 'local', '2816918']</t>
         </is>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 07:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3237,6 +4057,11 @@
           <t>['news', 'local', '2816923']</t>
         </is>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 07:35 น.</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3254,6 +4079,11 @@
           <t>['news', 'politic', '2816789']</t>
         </is>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 04:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3271,6 +4101,11 @@
           <t>['news', 'politic', '2816768']</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>28 ก.ย. 2567 04:43 น.</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3288,6 +4123,11 @@
           <t>['news', 'local', 'north', '2816893']</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 21:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3305,6 +4145,11 @@
           <t>['news', 'local', '2816864']</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 17:16 น.</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3322,6 +4167,11 @@
           <t>['news', 'local', 'north', '2816848']</t>
         </is>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 16:34 น.</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3339,6 +4189,11 @@
           <t>['news', 'local', 'north', '2816827']</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 14:51 น.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3356,6 +4211,11 @@
           <t>['news', 'local', 'north', '2816828']</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 14:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3373,6 +4233,11 @@
           <t>['news', 'local', '2816761']</t>
         </is>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 10:35 น.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3390,6 +4255,11 @@
           <t>['news', 'local', '2816750']</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 09:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3407,6 +4277,11 @@
           <t>['news', 'local', '2816738']</t>
         </is>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 09:34 น.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3424,6 +4299,11 @@
           <t>['news', 'local', '2816742']</t>
         </is>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 09:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3441,6 +4321,11 @@
           <t>['news', 'local', '2816739']</t>
         </is>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 09:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3458,6 +4343,11 @@
           <t>['news', 'local', '2816732']</t>
         </is>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 08:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3475,6 +4365,11 @@
           <t>['news', 'local', '2816737']</t>
         </is>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 07:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3492,6 +4387,11 @@
           <t>['news', 'local', 'central', '2816718']</t>
         </is>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>27 ก.ย. 2567 07:04 น.</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3509,6 +4409,11 @@
           <t>['news', 'local', 'north', '2816687']</t>
         </is>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 21:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3526,6 +4431,11 @@
           <t>['news', 'local', '2816685']</t>
         </is>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 20:42 น.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3543,6 +4453,11 @@
           <t>['news', 'local', '2816672']</t>
         </is>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 19:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3560,6 +4475,11 @@
           <t>['scoop', 'infographic', '2816664']</t>
         </is>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 18:12 น.</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3577,6 +4497,11 @@
           <t>['news', 'local', 'north', '2816651']</t>
         </is>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 16:52 น.</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3594,6 +4519,11 @@
           <t>['news', 'society', '2816639']</t>
         </is>
       </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 16:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3611,6 +4541,11 @@
           <t>['news', 'local', 'north', '2816636']</t>
         </is>
       </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 16:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3628,6 +4563,11 @@
           <t>['news', 'local', 'north', '2816616']</t>
         </is>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 15:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3645,6 +4585,11 @@
           <t>['news', 'local', '2816607']</t>
         </is>
       </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 14:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3662,6 +4607,11 @@
           <t>['news', 'local', 'north', '2816604']</t>
         </is>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 14:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3679,6 +4629,11 @@
           <t>['news', 'local', '2816594']</t>
         </is>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 13:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3696,6 +4651,11 @@
           <t>['news', 'local', 'north', '2816588']</t>
         </is>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 13:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3713,6 +4673,11 @@
           <t>['news', 'local', '2816542']</t>
         </is>
       </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 11:12 น.</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3730,6 +4695,11 @@
           <t>['news', 'local', '2816549']</t>
         </is>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 11:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3747,6 +4717,11 @@
           <t>['news', 'local', 'north', '2816533']</t>
         </is>
       </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 10:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3764,6 +4739,11 @@
           <t>['news', 'local', '2816521']</t>
         </is>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 09:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3781,6 +4761,11 @@
           <t>['news', 'local', '2816507']</t>
         </is>
       </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 08:29 น.</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3798,6 +4783,11 @@
           <t>['news', 'local', '2816506']</t>
         </is>
       </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 07:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3815,6 +4805,11 @@
           <t>['news', 'local', '2816499']</t>
         </is>
       </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 07:16 น.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3832,6 +4827,11 @@
           <t>['news', 'local', 'north', '2816531']</t>
         </is>
       </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 07:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3849,6 +4849,11 @@
           <t>['news', 'local', '2816494']</t>
         </is>
       </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>26 ก.ย. 2567 06:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3866,6 +4871,11 @@
           <t>['news', 'local', 'north', '2816456']</t>
         </is>
       </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 20:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3883,6 +4893,11 @@
           <t>['news', 'local', '2816444']</t>
         </is>
       </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 18:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3900,6 +4915,11 @@
           <t>['news', 'local', 'north', '2816436']</t>
         </is>
       </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 17:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3917,6 +4937,11 @@
           <t>['news', 'local', '2816401']</t>
         </is>
       </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 15:11 น.</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3934,6 +4959,11 @@
           <t>['news', 'local', '2816365']</t>
         </is>
       </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 13:43 น.</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3951,6 +4981,11 @@
           <t>['news', 'local', 'north', '2816320']</t>
         </is>
       </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 10:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3968,6 +5003,11 @@
           <t>['news', 'local', 'north', '2816322']</t>
         </is>
       </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 10:42 น.</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3985,6 +5025,11 @@
           <t>['news', 'local', 'north', '2816290']</t>
         </is>
       </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 08:53 น.</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4002,6 +5047,11 @@
           <t>['news', 'local', 'north', '2816283']</t>
         </is>
       </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 08:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4019,6 +5069,11 @@
           <t>['news', 'local', 'north', '2816280']</t>
         </is>
       </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 07:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4036,6 +5091,11 @@
           <t>['news', 'local', '2816287']</t>
         </is>
       </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>25 ก.ย. 2567 07:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4053,6 +5113,11 @@
           <t>['news', 'local', 'north', '2816260']</t>
         </is>
       </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 21:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4070,6 +5135,11 @@
           <t>['news', 'local', 'north', '2816256']</t>
         </is>
       </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 20:42 น.</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4087,6 +5157,11 @@
           <t>['news', 'local', 'north', '2816225']</t>
         </is>
       </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 17:34 น.</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4104,6 +5179,11 @@
           <t>['news', 'local', 'north', '2816216']</t>
         </is>
       </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 16:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4121,6 +5201,11 @@
           <t>['news', 'local', 'north', '2816198']</t>
         </is>
       </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 15:27 น.</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4138,6 +5223,11 @@
           <t>['news', 'society', '2816192']</t>
         </is>
       </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 15:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4155,6 +5245,11 @@
           <t>['news', 'local', 'north', '2816194']</t>
         </is>
       </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 15:04 น.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4172,6 +5267,11 @@
           <t>['news', 'local', 'north', '2816174']</t>
         </is>
       </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 14:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4189,6 +5289,11 @@
           <t>['news', 'local', 'north', '2816166']</t>
         </is>
       </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 13:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4206,6 +5311,11 @@
           <t>['news', 'local', 'north', '2816163']</t>
         </is>
       </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 13:38 น.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4223,6 +5333,11 @@
           <t>['news', 'local', 'north', '2816133']</t>
         </is>
       </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 11:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4240,6 +5355,11 @@
           <t>['news', 'local', 'north', '2816109']</t>
         </is>
       </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 09:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4257,6 +5377,11 @@
           <t>['news', 'local', 'north', '2816095']</t>
         </is>
       </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 09:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4274,6 +5399,11 @@
           <t>['news', 'local', 'north', '2816077']</t>
         </is>
       </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>24 ก.ย. 2567 07:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4291,6 +5421,11 @@
           <t>['news', 'local', '2816057']</t>
         </is>
       </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>23 ก.ย. 2567 21:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4308,6 +5443,11 @@
           <t>['news', 'local', 'north', '2816047']</t>
         </is>
       </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>23 ก.ย. 2567 19:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4325,6 +5465,11 @@
           <t>['news', 'local', 'north', '2816044']</t>
         </is>
       </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>23 ก.ย. 2567 19:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4342,6 +5487,11 @@
           <t>['news', 'local', 'north', '2815935']</t>
         </is>
       </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>23 ก.ย. 2567 10:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4359,6 +5509,11 @@
           <t>['news', 'local', '2815897']</t>
         </is>
       </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>23 ก.ย. 2567 06:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -4376,6 +5531,11 @@
           <t>['news', 'local', 'north', '2815840']</t>
         </is>
       </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>22 ก.ย. 2567 16:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4393,6 +5553,11 @@
           <t>['news', 'local', '2815760']</t>
         </is>
       </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>22 ก.ย. 2567 06:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4410,6 +5575,11 @@
           <t>['news', 'local', '2815685']</t>
         </is>
       </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>21 ก.ย. 2567 16:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4427,6 +5597,11 @@
           <t>['news', 'local', '2815624']</t>
         </is>
       </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>21 ก.ย. 2567 08:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -4444,6 +5619,11 @@
           <t>['news', 'local', '2815613']</t>
         </is>
       </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>21 ก.ย. 2567 07:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4461,6 +5641,11 @@
           <t>['news', 'local', 'north', '2815576']</t>
         </is>
       </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>20 ก.ย. 2567 19:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4478,6 +5663,11 @@
           <t>['news', 'local', 'northeast', '2815556']</t>
         </is>
       </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>20 ก.ย. 2567 18:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4495,6 +5685,11 @@
           <t>['news', 'local', '2815469']</t>
         </is>
       </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>20 ก.ย. 2567 10:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -4512,6 +5707,11 @@
           <t>['news', 'local', '2815274']</t>
         </is>
       </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>20 ก.ย. 2567 06:33 น.</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -4529,6 +5729,11 @@
           <t>['news', 'politic', '2815277']</t>
         </is>
       </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>20 ก.ย. 2567 05:44 น.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -4546,6 +5751,11 @@
           <t>['news', 'local', 'north', '2815420']</t>
         </is>
       </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>19 ก.ย. 2567 22:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4563,6 +5773,11 @@
           <t>['scoop', 'theissue', '2815364']</t>
         </is>
       </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>19 ก.ย. 2567 17:27 น.</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4580,6 +5795,11 @@
           <t>['news', 'local', 'south', '2815323']</t>
         </is>
       </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>19 ก.ย. 2567 14:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4597,6 +5817,11 @@
           <t>['news', 'local', '2815269']</t>
         </is>
       </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>19 ก.ย. 2567 10:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4614,6 +5839,11 @@
           <t>['news', 'local', 'north', '2815193']</t>
         </is>
       </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 19:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4631,6 +5861,11 @@
           <t>['news', 'local', 'north', '2815190']</t>
         </is>
       </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 18:56 น.</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4648,6 +5883,11 @@
           <t>['news', 'local', 'north', '2815178']</t>
         </is>
       </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 17:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4665,6 +5905,11 @@
           <t>['news', 'local', '2815168']</t>
         </is>
       </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 17:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4682,6 +5927,11 @@
           <t>['news', 'local', '2815103']</t>
         </is>
       </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 13:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4699,6 +5949,11 @@
           <t>['news', 'local', '2815043']</t>
         </is>
       </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 08:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4716,6 +5971,11 @@
           <t>['news', 'local', 'north', '2815040']</t>
         </is>
       </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 08:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4733,6 +5993,11 @@
           <t>['news', 'local', '2815042']</t>
         </is>
       </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 07:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4750,6 +6015,11 @@
           <t>['news', 'local', '2815038']</t>
         </is>
       </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>18 ก.ย. 2567 07:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4767,6 +6037,11 @@
           <t>['news', 'local', 'north', '2815003']</t>
         </is>
       </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 19:13 น.</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4784,6 +6059,11 @@
           <t>['news', 'local', 'north', '2814979']</t>
         </is>
       </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 17:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4801,6 +6081,11 @@
           <t>['news', 'local', 'north', '2814967']</t>
         </is>
       </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 16:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -4818,6 +6103,11 @@
           <t>['news', 'local', 'north', '2814947']</t>
         </is>
       </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 15:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -4835,6 +6125,11 @@
           <t>['news', 'local', 'north', '2814911']</t>
         </is>
       </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 13:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -4852,6 +6147,11 @@
           <t>['news', 'local', 'north', '2814889']</t>
         </is>
       </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 11:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -4869,6 +6169,11 @@
           <t>['news', 'local', 'north', '2814886']</t>
         </is>
       </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 11:13 น.</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -4886,6 +6191,11 @@
           <t>['news', 'local', 'north', '2814876']</t>
         </is>
       </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 10:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -4903,6 +6213,11 @@
           <t>['news', 'local', '2814865']</t>
         </is>
       </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 09:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4920,6 +6235,11 @@
           <t>['news', 'local', '2814841']</t>
         </is>
       </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 08:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -4937,6 +6257,11 @@
           <t>['news', 'local', '2814837']</t>
         </is>
       </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 07:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -4954,6 +6279,11 @@
           <t>['news', 'local', '2814834']</t>
         </is>
       </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 07:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -4971,6 +6301,11 @@
           <t>['news', 'local', '2814838']</t>
         </is>
       </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 07:28 น.</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -4988,6 +6323,11 @@
           <t>['news', 'local', 'northeast', '2814856']</t>
         </is>
       </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>17 ก.ย. 2567 06:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -5005,6 +6345,11 @@
           <t>['news', 'local', 'northeast', '2814784']</t>
         </is>
       </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 17:27 น.</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -5022,6 +6367,11 @@
           <t>['scoop', 'interview', '2814740']</t>
         </is>
       </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 15:51 น.</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -5039,6 +6389,11 @@
           <t>['news', 'local', 'northeast', '2814730']</t>
         </is>
       </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 14:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -5056,6 +6411,11 @@
           <t>['news', 'local', 'northeast', '2814705']</t>
         </is>
       </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 11:48 น.</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -5073,6 +6433,11 @@
           <t>['news', 'local', 'north', '2814698']</t>
         </is>
       </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 11:35 น.</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -5090,6 +6455,11 @@
           <t>['news', 'local', 'northeast', '2814695']</t>
         </is>
       </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 11:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -5107,6 +6477,11 @@
           <t>['news', 'local', 'south', '2814679']</t>
         </is>
       </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 11:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -5124,6 +6499,11 @@
           <t>['news', 'local', '2814665']</t>
         </is>
       </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 09:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -5141,6 +6521,11 @@
           <t>['news', 'local', '2814644']</t>
         </is>
       </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 08:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5158,6 +6543,11 @@
           <t>['news', 'local', '2814641']</t>
         </is>
       </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 07:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -5175,6 +6565,11 @@
           <t>['news', 'local', '2814517']</t>
         </is>
       </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 06:22 น.</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -5192,6 +6587,11 @@
           <t>['news', 'local', '2814520']</t>
         </is>
       </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 06:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -5209,6 +6609,11 @@
           <t>['news', 'local', '2814633']</t>
         </is>
       </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 06:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -5226,6 +6631,11 @@
           <t>['news', 'local', '2814511']</t>
         </is>
       </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 06:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -5243,6 +6653,11 @@
           <t>['news', 'local', '2814647']</t>
         </is>
       </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>16 ก.ย. 2567 05:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -5260,6 +6675,11 @@
           <t>['news', 'local', '2814559']</t>
         </is>
       </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>15 ก.ย. 2567 15:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -5277,6 +6697,11 @@
           <t>['news', 'local', 'north', '2814508']</t>
         </is>
       </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>15 ก.ย. 2567 12:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -5294,6 +6719,11 @@
           <t>['news', 'local', '2814483']</t>
         </is>
       </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>15 ก.ย. 2567 10:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -5311,6 +6741,11 @@
           <t>['news', 'local', '2814473']</t>
         </is>
       </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>15 ก.ย. 2567 06:04 น.</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -5328,6 +6763,11 @@
           <t>['news', 'local', '2814462']</t>
         </is>
       </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>15 ก.ย. 2567 06:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -5345,6 +6785,11 @@
           <t>['news', 'local', '2814472']</t>
         </is>
       </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>15 ก.ย. 2567 05:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -5362,6 +6807,11 @@
           <t>['news', 'local', 'northeast', '2814441']</t>
         </is>
       </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 22:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -5379,6 +6829,11 @@
           <t>['news', 'local', 'north', '2814433']</t>
         </is>
       </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 21:41 น.</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -5396,6 +6851,11 @@
           <t>['news', 'local', 'north', '2814414']</t>
         </is>
       </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 19:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -5413,6 +6873,11 @@
           <t>['news', 'local', 'north', '2814411']</t>
         </is>
       </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 18:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -5430,6 +6895,11 @@
           <t>['news', 'local', 'northeast', '2814401']</t>
         </is>
       </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 18:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -5447,6 +6917,11 @@
           <t>['news', 'local', '2814400']</t>
         </is>
       </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 17:35 น.</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -5464,6 +6939,11 @@
           <t>['news', 'local', '2814394']</t>
         </is>
       </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 17:12 น.</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -5481,6 +6961,11 @@
           <t>['news', 'society', '2814390']</t>
         </is>
       </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 17:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -5498,6 +6983,11 @@
           <t>['news', 'local', 'north', '2814380']</t>
         </is>
       </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 16:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -5515,6 +7005,11 @@
           <t>['news', 'local', 'northeast', '2814373']</t>
         </is>
       </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 15:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -5532,6 +7027,11 @@
           <t>['news', 'local', 'northeast', '2814354']</t>
         </is>
       </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 14:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -5549,6 +7049,11 @@
           <t>['news', 'local', 'north', '2814349']</t>
         </is>
       </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 13:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -5566,6 +7071,11 @@
           <t>['news', 'local', '2814347']</t>
         </is>
       </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 13:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -5583,6 +7093,11 @@
           <t>['news', 'local', '2814337']</t>
         </is>
       </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 11:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -5600,6 +7115,11 @@
           <t>['news', 'local', '2814333']</t>
         </is>
       </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 10:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -5617,6 +7137,11 @@
           <t>['news', 'local', '2814328']</t>
         </is>
       </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 10:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -5634,6 +7159,11 @@
           <t>['news', 'local', '2814324']</t>
         </is>
       </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 09:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -5651,6 +7181,11 @@
           <t>['news', 'local', '2814317']</t>
         </is>
       </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 09:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -5668,6 +7203,11 @@
           <t>['news', 'local', '2814310']</t>
         </is>
       </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 08:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -5685,6 +7225,11 @@
           <t>['news', 'local', 'north', '2814306']</t>
         </is>
       </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 07:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5702,6 +7247,11 @@
           <t>['news', 'local', 'north', '2814322']</t>
         </is>
       </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 06:57 น.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -5719,6 +7269,11 @@
           <t>['news', 'local', 'north', '2814321']</t>
         </is>
       </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 06:54 น.</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -5736,6 +7291,11 @@
           <t>['news', 'local', 'north', '2814319']</t>
         </is>
       </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>14 ก.ย. 2567 06:52 น.</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -5753,6 +7313,11 @@
           <t>['news', 'local', 'northeast', '2814292']</t>
         </is>
       </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 23:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -5770,6 +7335,11 @@
           <t>['news', 'local', '2814281']</t>
         </is>
       </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 21:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -5787,6 +7357,11 @@
           <t>['news', 'local', '2814280']</t>
         </is>
       </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 20:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -5804,6 +7379,11 @@
           <t>['news', 'local', 'north', '2814277']</t>
         </is>
       </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 20:34 น.</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -5821,6 +7401,11 @@
           <t>['news', 'local', 'north', '2814263']</t>
         </is>
       </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 20:22 น.</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -5838,6 +7423,11 @@
           <t>['news', 'politic', '2814266']</t>
         </is>
       </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 19:29 น.</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -5855,6 +7445,11 @@
           <t>['news', 'local', 'north', '2814245']</t>
         </is>
       </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 17:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5872,6 +7467,11 @@
           <t>['news', 'local', 'north', '2814242']</t>
         </is>
       </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 16:57 น.</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -5889,6 +7489,11 @@
           <t>['news', 'local', 'north', '2814231']</t>
         </is>
       </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 16:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5906,6 +7511,11 @@
           <t>['news', 'politic', '2814227']</t>
         </is>
       </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 15:51 น.</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -5923,6 +7533,11 @@
           <t>['news', 'local', 'north', '2814204']</t>
         </is>
       </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 14:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -5940,6 +7555,11 @@
           <t>['news', 'politic', '2814167']</t>
         </is>
       </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 11:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -5957,6 +7577,11 @@
           <t>['news', 'politic', '2814165']</t>
         </is>
       </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 11:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5974,6 +7599,11 @@
           <t>['news', 'local', 'north', '2814157']</t>
         </is>
       </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 11:12 น.</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -5991,6 +7621,11 @@
           <t>['news', 'local', '2814156']</t>
         </is>
       </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 11:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -6008,6 +7643,11 @@
           <t>['news', 'local', 'north', '2814155']</t>
         </is>
       </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 10:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -6025,6 +7665,11 @@
           <t>['news', 'local', '2814149']</t>
         </is>
       </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 10:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -6042,6 +7687,11 @@
           <t>['news', 'politic', '2814150']</t>
         </is>
       </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 09:56 น.</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -6059,6 +7709,11 @@
           <t>['news', 'society', '2814120']</t>
         </is>
       </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 08:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -6076,6 +7731,11 @@
           <t>['news', 'local', '2814118']</t>
         </is>
       </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 07:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -6093,6 +7753,11 @@
           <t>['news', 'local', 'north', '2814142']</t>
         </is>
       </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 06:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -6110,6 +7775,11 @@
           <t>['news', 'local', 'north', '2814148']</t>
         </is>
       </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 06:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -6127,6 +7797,11 @@
           <t>['news', 'local', 'north', '2814137']</t>
         </is>
       </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 06:57 น.</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -6144,6 +7819,11 @@
           <t>['news', 'local', 'north', '2814139']</t>
         </is>
       </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 06:54 น.</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -6161,6 +7841,11 @@
           <t>['news', 'local', '2813935']</t>
         </is>
       </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 06:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -6178,6 +7863,11 @@
           <t>['news', 'local', '2813914']</t>
         </is>
       </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>13 ก.ย. 2567 05:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -6195,6 +7885,11 @@
           <t>['news', 'local', 'north', '2814096']</t>
         </is>
       </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 22:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -6212,6 +7907,11 @@
           <t>['news', 'local', 'north', '2814083']</t>
         </is>
       </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 20:44 น.</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -6229,6 +7929,11 @@
           <t>['news', 'local', 'north', '2814074']</t>
         </is>
       </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 20:11 น.</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -6246,6 +7951,11 @@
           <t>['news', 'local', 'north', '2814060']</t>
         </is>
       </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 19:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -6263,6 +7973,11 @@
           <t>['news', 'society', '2814055']</t>
         </is>
       </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 18:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -6280,6 +7995,11 @@
           <t>['news', 'local', 'north', '2814050']</t>
         </is>
       </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 18:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -6297,6 +8017,11 @@
           <t>['news', 'local', 'north', '2814049']</t>
         </is>
       </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 18:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -6314,6 +8039,11 @@
           <t>['scoop', 'interview', '2814047']</t>
         </is>
       </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 18:02 น.</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -6331,6 +8061,11 @@
           <t>['scoop', 'infographic', '2814046']</t>
         </is>
       </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 17:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -6348,6 +8083,11 @@
           <t>['news', 'local', 'northeast', '2814043']</t>
         </is>
       </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 17:54 น.</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -6365,6 +8105,11 @@
           <t>['news', 'local', 'north', '2814042']</t>
         </is>
       </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 17:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -6382,6 +8127,11 @@
           <t>['news', 'local', 'north', '2814032']</t>
         </is>
       </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 17:22 น.</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -6399,6 +8149,11 @@
           <t>['news', 'local', 'north', '2814030']</t>
         </is>
       </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 16:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -6416,6 +8171,11 @@
           <t>['news', 'local', 'north', '2814026']</t>
         </is>
       </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 16:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -6433,6 +8193,11 @@
           <t>['news', 'local', 'northeast', '2814017']</t>
         </is>
       </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 16:28 น.</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -6450,6 +8215,11 @@
           <t>['news', 'local', 'north', '2814015']</t>
         </is>
       </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 16:13 น.</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -6467,6 +8237,11 @@
           <t>['news', 'local', 'north', '2814014']</t>
         </is>
       </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 16:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -6484,6 +8259,11 @@
           <t>['news', 'local', 'north', '2814001']</t>
         </is>
       </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 15:38 น.</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -6501,6 +8281,11 @@
           <t>['news', 'local', 'north', '2814003']</t>
         </is>
       </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 15:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -6518,6 +8303,11 @@
           <t>['news', 'local', 'north', '2813996']</t>
         </is>
       </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 15:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -6535,6 +8325,11 @@
           <t>['news', 'local', 'north', '2813970']</t>
         </is>
       </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 14:29 น.</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -6552,6 +8347,11 @@
           <t>['news', 'local', 'north', '2813964']</t>
         </is>
       </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 13:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -6569,6 +8369,11 @@
           <t>['news', 'local', 'north', '2813959']</t>
         </is>
       </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 13:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -6586,6 +8391,11 @@
           <t>['scoop', 'theissue', '2813938']</t>
         </is>
       </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 13:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -6603,6 +8413,11 @@
           <t>['news', 'local', '2813951']</t>
         </is>
       </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 12:56 น.</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -6620,6 +8435,11 @@
           <t>['news', 'local', '2813945']</t>
         </is>
       </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 12:28 น.</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -6637,6 +8457,11 @@
           <t>['news', 'local', '2813942']</t>
         </is>
       </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 12:27 น.</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -6654,6 +8479,11 @@
           <t>['news', 'local', '2813929']</t>
         </is>
       </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 11:49 น.</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -6671,6 +8501,11 @@
           <t>['news', 'local', '2813547']</t>
         </is>
       </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 10:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -6688,6 +8523,11 @@
           <t>['news', 'local', 'north', '2813910']</t>
         </is>
       </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 10:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -6705,6 +8545,11 @@
           <t>['news', 'local', '2813908']</t>
         </is>
       </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 10:41 น.</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -6722,6 +8567,11 @@
           <t>['news', 'local', '2813884']</t>
         </is>
       </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 08:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -6739,6 +8589,11 @@
           <t>['news', 'local', '2813877']</t>
         </is>
       </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 08:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -6756,6 +8611,11 @@
           <t>['news', 'local', '2813871']</t>
         </is>
       </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 07:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -6773,6 +8633,11 @@
           <t>['news', 'local', '2813869']</t>
         </is>
       </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 07:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -6790,6 +8655,11 @@
           <t>['news', 'local', 'north', '2813894']</t>
         </is>
       </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 06:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -6807,6 +8677,11 @@
           <t>['news', 'local', 'north', '2813891']</t>
         </is>
       </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 06:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -6824,6 +8699,11 @@
           <t>['news', 'local', 'north', '2813888']</t>
         </is>
       </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>12 ก.ย. 2567 06:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -6841,6 +8721,11 @@
           <t>['news', 'local', 'north', '2813854']</t>
         </is>
       </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 21:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -6858,6 +8743,11 @@
           <t>['news', 'local', 'north', '2813849']</t>
         </is>
       </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 20:02 น.</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -6875,6 +8765,11 @@
           <t>['news', 'local', 'north', '2813847']</t>
         </is>
       </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 19:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -6892,6 +8787,11 @@
           <t>['news', 'local', '2813843']</t>
         </is>
       </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 19:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -6909,6 +8809,11 @@
           <t>['news', 'local', '2813838']</t>
         </is>
       </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 19:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -6926,6 +8831,11 @@
           <t>['news', 'local', 'north', '2813833']</t>
         </is>
       </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 18:28 น.</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -6943,6 +8853,11 @@
           <t>['news', 'local', '2813829']</t>
         </is>
       </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 17:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -6960,6 +8875,11 @@
           <t>['news', 'local', '2813826']</t>
         </is>
       </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 17:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -6977,6 +8897,11 @@
           <t>['news', 'local', 'north', '2813807']</t>
         </is>
       </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 16:41 น.</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -6994,6 +8919,11 @@
           <t>['news', 'local', 'north', '2813801']</t>
         </is>
       </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 16:29 น.</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -7011,6 +8941,11 @@
           <t>['news', 'local', 'north', '2813786']</t>
         </is>
       </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 15:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -7028,6 +8963,11 @@
           <t>['news', 'crime', '2813782']</t>
         </is>
       </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 15:16 น.</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -7045,6 +8985,11 @@
           <t>['news', 'local', '2813771']</t>
         </is>
       </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 14:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -7062,6 +9007,11 @@
           <t>['news', 'local', 'north', '2813757']</t>
         </is>
       </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 14:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -7079,6 +9029,11 @@
           <t>['news', 'local', 'north', '2813748']</t>
         </is>
       </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 13:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -7096,6 +9051,11 @@
           <t>['news', 'local', 'north', '2813746']</t>
         </is>
       </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 13:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -7113,6 +9073,11 @@
           <t>['news', 'local', '2813710']</t>
         </is>
       </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 11:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -7130,6 +9095,11 @@
           <t>['news', 'local', 'north', '2813725']</t>
         </is>
       </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 11:42 น.</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -7147,6 +9117,11 @@
           <t>['news', 'local', '2813723']</t>
         </is>
       </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 11:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -7164,6 +9139,11 @@
           <t>['news', 'local', 'north', '2813714']</t>
         </is>
       </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 11:11 น.</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -7181,6 +9161,11 @@
           <t>['news', 'local', 'north', '2813705']</t>
         </is>
       </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 11:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -7198,6 +9183,11 @@
           <t>['news', 'local', 'north', '2813718']</t>
         </is>
       </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 11:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -7215,6 +9205,11 @@
           <t>['news', 'local', 'north', '2813703']</t>
         </is>
       </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 10:36 น.</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -7232,6 +9227,11 @@
           <t>['news', 'local', '2813692']</t>
         </is>
       </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 09:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -7249,6 +9249,11 @@
           <t>['news', 'local', '2813675']</t>
         </is>
       </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 08:31 น.</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -7266,6 +9271,11 @@
           <t>['news', 'local', 'north', '2813671']</t>
         </is>
       </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 08:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -7283,6 +9293,11 @@
           <t>['news', 'local', 'north', '2813663']</t>
         </is>
       </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 07:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -7300,6 +9315,11 @@
           <t>['news', 'local', '2813668']</t>
         </is>
       </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 07:23 น.</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -7317,6 +9337,11 @@
           <t>['news', 'local', 'north', '2813662']</t>
         </is>
       </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 07:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -7334,6 +9359,11 @@
           <t>['news', 'local', 'north', '2813680']</t>
         </is>
       </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>11 ก.ย. 2567 07:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -7351,6 +9381,11 @@
           <t>['news', 'local', 'north', '2813619']</t>
         </is>
       </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>10 ก.ย. 2567 19:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -7368,6 +9403,11 @@
           <t>['news', 'local', 'north', '2813608']</t>
         </is>
       </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>10 ก.ย. 2567 18:41 น.</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -7385,6 +9425,11 @@
           <t>['news', 'local', 'north', '2813611']</t>
         </is>
       </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>10 ก.ย. 2567 18:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -7402,6 +9447,11 @@
           <t>['news', 'local', 'north', '2813599']</t>
         </is>
       </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>10 ก.ย. 2567 17:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -7419,6 +9469,11 @@
           <t>['news', 'local', 'north', '2813538']</t>
         </is>
       </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>10 ก.ย. 2567 14:12 น.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -7436,6 +9491,11 @@
           <t>['news', 'local', '2813473']</t>
         </is>
       </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>10 ก.ย. 2567 09:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -7453,6 +9513,11 @@
           <t>['news', 'local', '2813449']</t>
         </is>
       </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>10 ก.ย. 2567 07:53 น.</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -7470,6 +9535,11 @@
           <t>['news', 'local', 'central', '2813366']</t>
         </is>
       </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>09 ก.ย. 2567 15:13 น.</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -7487,6 +9557,11 @@
           <t>['news', 'local', '2813258']</t>
         </is>
       </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>09 ก.ย. 2567 06:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -7504,6 +9579,11 @@
           <t>['news', 'local', '2813265']</t>
         </is>
       </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>09 ก.ย. 2567 05:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -7521,6 +9601,11 @@
           <t>['news', 'local', '2813142']</t>
         </is>
       </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>08 ก.ย. 2567 06:12 น.</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -7538,6 +9623,11 @@
           <t>['news', 'local', '2813022']</t>
         </is>
       </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>07 ก.ย. 2567 10:15 น.</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -7555,6 +9645,11 @@
           <t>['news', 'local', '2812996']</t>
         </is>
       </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>07 ก.ย. 2567 07:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -7572,6 +9667,11 @@
           <t>['news', 'local', '2812929']</t>
         </is>
       </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>07 ก.ย. 2567 06:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -7589,6 +9689,11 @@
           <t>['news', 'local', '2812846']</t>
         </is>
       </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>06 ก.ย. 2567 09:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -7606,6 +9711,11 @@
           <t>['news', 'local', '2812834']</t>
         </is>
       </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>06 ก.ย. 2567 07:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -7623,6 +9733,11 @@
           <t>['news', 'local', '2812843']</t>
         </is>
       </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>06 ก.ย. 2567 06:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -7640,6 +9755,11 @@
           <t>['news', '2812793']</t>
         </is>
       </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>05 ก.ย. 2567 22:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -7657,6 +9777,11 @@
           <t>['news', 'local', 'bangkok', '2812722']</t>
         </is>
       </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>05 ก.ย. 2567 15:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -7674,6 +9799,11 @@
           <t>['news', 'local', '2812617']</t>
         </is>
       </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>05 ก.ย. 2567 06:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -7691,6 +9821,11 @@
           <t>['news', 'local', '2812473']</t>
         </is>
       </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>05 ก.ย. 2567 05:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -7708,6 +9843,11 @@
           <t>['news', 'local', '2812625']</t>
         </is>
       </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>05 ก.ย. 2567 05:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -7725,6 +9865,11 @@
           <t>['news', 'society', '2812574']</t>
         </is>
       </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>04 ก.ย. 2567 20:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -7742,6 +9887,11 @@
           <t>['news', 'local', 'central', '2812546']</t>
         </is>
       </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>04 ก.ย. 2567 17:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -7759,6 +9909,11 @@
           <t>['news', 'local', '2812438']</t>
         </is>
       </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>04 ก.ย. 2567 10:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -7776,6 +9931,11 @@
           <t>['news', 'local', 'central', '2812399']</t>
         </is>
       </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>04 ก.ย. 2567 07:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -7793,6 +9953,11 @@
           <t>['news', 'local', '2812398']</t>
         </is>
       </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>04 ก.ย. 2567 07:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -7810,6 +9975,11 @@
           <t>['news', 'local', '2812407']</t>
         </is>
       </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>04 ก.ย. 2567 06:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -7827,6 +9997,11 @@
           <t>['news', 'local', 'central', '2812346']</t>
         </is>
       </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>03 ก.ย. 2567 18:27 น.</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -7844,6 +10019,11 @@
           <t>['news', 'local', 'central', '2812331']</t>
         </is>
       </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>03 ก.ย. 2567 17:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -7861,6 +10041,11 @@
           <t>['news', 'local', '2812200']</t>
         </is>
       </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>03 ก.ย. 2567 09:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -7878,6 +10063,11 @@
           <t>['news', 'local', 'central', '2812185']</t>
         </is>
       </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>03 ก.ย. 2567 07:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -7895,6 +10085,11 @@
           <t>['news', 'local', '2812179']</t>
         </is>
       </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>03 ก.ย. 2567 06:12 น.</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -7912,6 +10107,11 @@
           <t>['news', 'local', 'central', '2812086']</t>
         </is>
       </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>02 ก.ย. 2567 14:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -7929,6 +10129,11 @@
           <t>['news', 'local', 'central', '2812074']</t>
         </is>
       </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>02 ก.ย. 2567 13:49 น.</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -7946,6 +10151,11 @@
           <t>['news', 'local', 'central', '2812067']</t>
         </is>
       </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>02 ก.ย. 2567 12:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -7963,6 +10173,11 @@
           <t>['news', 'local', '2812003']</t>
         </is>
       </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>02 ก.ย. 2567 07:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -7980,6 +10195,11 @@
           <t>['news', 'local', '2811995']</t>
         </is>
       </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>02 ก.ย. 2567 06:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -7997,6 +10217,11 @@
           <t>['news', 'local', 'central', '2811957']</t>
         </is>
       </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>01 ก.ย. 2567 18:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -8014,6 +10239,11 @@
           <t>['news', 'local', 'north', '2811929']</t>
         </is>
       </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>01 ก.ย. 2567 15:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -8031,6 +10261,11 @@
           <t>['news', 'local', '2811860']</t>
         </is>
       </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>01 ก.ย. 2567 06:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -8048,6 +10283,11 @@
           <t>['news', 'local', '2811870']</t>
         </is>
       </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>01 ก.ย. 2567 06:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -8065,6 +10305,11 @@
           <t>['news', 'local', 'central', '2811833']</t>
         </is>
       </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>31 ส.ค. 2567 20:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -8082,6 +10327,11 @@
           <t>['news', 'local', 'north', '2811819']</t>
         </is>
       </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>31 ส.ค. 2567 18:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -8099,6 +10349,11 @@
           <t>['news', 'local', 'north', '2811797']</t>
         </is>
       </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>31 ส.ค. 2567 15:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -8116,6 +10371,11 @@
           <t>['news', 'local', '2811762']</t>
         </is>
       </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>31 ส.ค. 2567 11:28 น.</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -8133,6 +10393,11 @@
           <t>['news', 'local', '2811729']</t>
         </is>
       </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>31 ส.ค. 2567 06:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -8150,6 +10415,11 @@
           <t>['news', 'local', '2811718']</t>
         </is>
       </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>31 ส.ค. 2567 06:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -8167,6 +10437,11 @@
           <t>['news', 'local', 'central', '2811592']</t>
         </is>
       </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>30 ส.ค. 2567 09:53 น.</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -8184,6 +10459,11 @@
           <t>['news', 'local', '2811563']</t>
         </is>
       </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>30 ส.ค. 2567 06:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -8201,6 +10481,11 @@
           <t>['news', 'local', 'north', '2811465']</t>
         </is>
       </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>29 ส.ค. 2567 15:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -8218,6 +10503,11 @@
           <t>['news', 'local', 'north', '2811458']</t>
         </is>
       </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>29 ส.ค. 2567 14:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -8235,6 +10525,11 @@
           <t>['news', 'local', '2811446']</t>
         </is>
       </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>29 ส.ค. 2567 13:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -8252,6 +10547,11 @@
           <t>['news', 'local', 'north', '2811372']</t>
         </is>
       </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>29 ส.ค. 2567 10:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -8269,6 +10569,11 @@
           <t>['news', 'local', '2811349']</t>
         </is>
       </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>29 ส.ค. 2567 06:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -8286,6 +10591,11 @@
           <t>['news', 'local', '2811342']</t>
         </is>
       </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>29 ส.ค. 2567 06:35 น.</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -8303,6 +10613,11 @@
           <t>['news', 'local', 'north', '2811321']</t>
         </is>
       </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 22:42 น.</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -8320,6 +10635,11 @@
           <t>['news', 'local', 'north', '2811292']</t>
         </is>
       </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 19:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -8337,6 +10657,11 @@
           <t>['news', 'local', 'north', '2811271']</t>
         </is>
       </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 17:38 น.</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -8354,6 +10679,11 @@
           <t>['news', 'local', 'north', '2811239']</t>
         </is>
       </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 17:16 น.</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -8371,6 +10701,11 @@
           <t>['news', 'local', 'north', '2811223']</t>
         </is>
       </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 14:52 น.</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -8388,6 +10723,11 @@
           <t>['news', 'local', '2811220']</t>
         </is>
       </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 14:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -8405,6 +10745,11 @@
           <t>['news', 'local', 'northeast', '2811140']</t>
         </is>
       </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 10:49 น.</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -8422,6 +10767,11 @@
           <t>['news', 'local', 'central', '2811126']</t>
         </is>
       </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 09:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -8439,6 +10789,11 @@
           <t>['news', 'local', 'central', '2811114']</t>
         </is>
       </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 08:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -8456,6 +10811,11 @@
           <t>['news', 'local', 'north', '2811054']</t>
         </is>
       </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 05:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -8473,6 +10833,11 @@
           <t>['news', 'politic', '2811047']</t>
         </is>
       </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>28 ส.ค. 2567 05:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -8490,6 +10855,11 @@
           <t>['news', 'local', 'north', '2811085']</t>
         </is>
       </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 23:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -8507,6 +10877,11 @@
           <t>['news', 'local', 'bangkok', '2811019']</t>
         </is>
       </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 20:45 น.</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -8524,6 +10899,11 @@
           <t>['news', 'society', '2810999']</t>
         </is>
       </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 17:49 น.</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -8541,6 +10921,11 @@
           <t>['news', 'society', '2810982']</t>
         </is>
       </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 16:39 น.</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -8558,6 +10943,11 @@
           <t>['news', 'local', '2810975']</t>
         </is>
       </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 16:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -8575,6 +10965,11 @@
           <t>['news', 'society', '2810957']</t>
         </is>
       </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 15:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -8592,6 +10987,11 @@
           <t>['news', 'local', 'north', '2810923']</t>
         </is>
       </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 14:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -8609,6 +11009,11 @@
           <t>['news', 'society', '2810919']</t>
         </is>
       </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 14:32 น.</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -8626,6 +11031,11 @@
           <t>['scoop', 'theissue', '2810892']</t>
         </is>
       </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 13:44 น.</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -8643,6 +11053,11 @@
           <t>['news', 'local', 'bangkok', '2810885']</t>
         </is>
       </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 13:21 น.</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -8660,6 +11075,11 @@
           <t>['news', 'local', 'north', '2810893']</t>
         </is>
       </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 13:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -8677,6 +11097,11 @@
           <t>['news', 'local', 'bangkok', '2810883']</t>
         </is>
       </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 12:42 น.</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -8694,6 +11119,11 @@
           <t>['news', 'local', 'north', '2810874']</t>
         </is>
       </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 12:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -8711,6 +11141,11 @@
           <t>['news', 'local', 'central', '2810814']</t>
         </is>
       </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 10:02 น.</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -8728,6 +11163,11 @@
           <t>['news', 'local', '2810804']</t>
         </is>
       </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 08:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -8745,6 +11185,11 @@
           <t>['news', 'politic', '2810570']</t>
         </is>
       </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 06:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -8762,6 +11207,11 @@
           <t>['news', 'local', '2810594']</t>
         </is>
       </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 05:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -8779,6 +11229,11 @@
           <t>['news', 'local', '2810751']</t>
         </is>
       </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>27 ส.ค. 2567 05:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -8796,6 +11251,11 @@
           <t>['news', 'society', '2810715']</t>
         </is>
       </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 19:08 น.</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -8813,6 +11273,11 @@
           <t>['news', 'society', '2810675']</t>
         </is>
       </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 17:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -8830,6 +11295,11 @@
           <t>['news', 'local', '2810654']</t>
         </is>
       </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 16:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -8847,6 +11317,11 @@
           <t>['news', 'local', 'north', '2810647']</t>
         </is>
       </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 15:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -8864,6 +11339,11 @@
           <t>['news', 'local', 'north', '2810599']</t>
         </is>
       </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 13:07 น.</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -8881,6 +11361,11 @@
           <t>['news', 'local', 'north', '2810579']</t>
         </is>
       </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 12:17 น.</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -8898,6 +11383,11 @@
           <t>['news', 'local', 'north', '2810573']</t>
         </is>
       </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 11:44 น.</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -8915,6 +11405,11 @@
           <t>['news', 'local', '2810564']</t>
         </is>
       </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 10:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -8932,6 +11427,11 @@
           <t>['news', 'local', 'north', '2810558']</t>
         </is>
       </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 10:43 น.</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -8949,6 +11449,11 @@
           <t>['news', 'local', 'central', '2810550']</t>
         </is>
       </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 09:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -8966,6 +11471,11 @@
           <t>['news', 'local', '2810485']</t>
         </is>
       </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>26 ส.ค. 2567 05:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -8983,6 +11493,11 @@
           <t>['news', 'local', 'north', '2810483']</t>
         </is>
       </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 20:52 น.</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -9000,6 +11515,11 @@
           <t>['news', 'local', 'north', '2810420']</t>
         </is>
       </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 15:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -9017,6 +11537,11 @@
           <t>['news', 'local', 'north', '2810382']</t>
         </is>
       </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 12:22 น.</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -9034,6 +11559,11 @@
           <t>['news', 'local', '2810572']</t>
         </is>
       </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 11:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -9051,6 +11581,11 @@
           <t>['news', 'local', 'central', '2810354']</t>
         </is>
       </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 10:04 น.</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -9068,6 +11603,11 @@
           <t>['news', 'politic', '2810263']</t>
         </is>
       </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 06:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -9085,6 +11625,11 @@
           <t>['news', 'local', 'north', '2810184']</t>
         </is>
       </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 05:25 น.</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -9102,6 +11647,11 @@
           <t>['news', 'local', 'north', '2810179']</t>
         </is>
       </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 05:18 น.</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -9119,6 +11669,11 @@
           <t>['news', 'local', 'north', '2810180']</t>
         </is>
       </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>25 ส.ค. 2567 05:13 น.</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -9136,6 +11691,11 @@
           <t>['news', 'crime', '2810247']</t>
         </is>
       </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>24 ส.ค. 2567 13:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -9153,6 +11713,11 @@
           <t>['news', 'society', '2810241']</t>
         </is>
       </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>24 ส.ค. 2567 12:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -9170,6 +11735,11 @@
           <t>['news', 'local', 'central', '2810226']</t>
         </is>
       </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>24 ส.ค. 2567 10:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -9187,6 +11757,11 @@
           <t>['news', 'local', 'north', '2810171']</t>
         </is>
       </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 21:46 น.</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -9204,6 +11779,11 @@
           <t>['news', 'local', '2810167']</t>
         </is>
       </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 21:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -9221,6 +11801,11 @@
           <t>['news', 'local', 'north', '2810158']</t>
         </is>
       </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 19:54 น.</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -9238,6 +11823,11 @@
           <t>['news', 'local', 'north', '2810139']</t>
         </is>
       </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 18:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -9255,6 +11845,11 @@
           <t>['news', 'local', 'north', '2810079']</t>
         </is>
       </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 14:33 น.</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -9272,6 +11867,11 @@
           <t>['news', 'local', '2810067']</t>
         </is>
       </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 13:30 น.</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -9289,6 +11889,11 @@
           <t>['news', 'local', 'north', '2810015']</t>
         </is>
       </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 10:29 น.</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -9306,6 +11911,11 @@
           <t>['news', 'local', '2809909']</t>
         </is>
       </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 06:43 น.</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -9323,6 +11933,11 @@
           <t>['news', 'local', '2809931']</t>
         </is>
       </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 05:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -9340,6 +11955,11 @@
           <t>['news', 'local', '2809928']</t>
         </is>
       </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>23 ส.ค. 2567 05:01 น.</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -9357,6 +11977,11 @@
           <t>['news', 'local', 'north', '2809895']</t>
         </is>
       </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 21:37 น.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -9374,6 +11999,11 @@
           <t>['news', 'local', 'north', '2809890']</t>
         </is>
       </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 20:40 น.</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -9391,6 +12021,11 @@
           <t>['news', 'politic', '2809837']</t>
         </is>
       </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 17:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -9408,6 +12043,11 @@
           <t>['news', 'local', 'north', '2809809']</t>
         </is>
       </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 15:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -9425,6 +12065,11 @@
           <t>['news', 'local', 'north', '2809792']</t>
         </is>
       </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 15:10 น.</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -9442,6 +12087,11 @@
           <t>['news', 'local', 'north', '2809782']</t>
         </is>
       </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 14:26 น.</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -9459,6 +12109,11 @@
           <t>['news', 'local', 'north', '2809769']</t>
         </is>
       </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 14:05 น.</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -9476,6 +12131,11 @@
           <t>['news', 'local', 'north', '2809757']</t>
         </is>
       </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 14:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -9493,6 +12153,11 @@
           <t>['news', 'local', '2809768']</t>
         </is>
       </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 14:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -9510,6 +12175,11 @@
           <t>['news', 'local', 'north', '2809748']</t>
         </is>
       </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 12:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -9527,6 +12197,11 @@
           <t>['news', 'local', 'north', '2809718']</t>
         </is>
       </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 11:16 น.</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -9544,6 +12219,11 @@
           <t>['news', 'local', 'north', '2809698']</t>
         </is>
       </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 10:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -9561,6 +12241,11 @@
           <t>['news', 'local', 'north', '2809678']</t>
         </is>
       </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>22 ส.ค. 2567 08:50 น.</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -9578,6 +12263,11 @@
           <t>['news', 'local', 'northeast', '2809599']</t>
         </is>
       </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>21 ส.ค. 2567 18:51 น.</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -9595,6 +12285,11 @@
           <t>['news', 'politic', '2807550']</t>
         </is>
       </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>13 ส.ค. 2567 16:47 น.</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -9612,6 +12307,11 @@
           <t>['news', 'local', 'northeast', '2806169']</t>
         </is>
       </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>07 ส.ค. 2567 12:43 น.</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -9629,6 +12329,11 @@
           <t>['news', 'local', '2805786']</t>
         </is>
       </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>06 ส.ค. 2567 05:06 น.</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -9646,6 +12351,11 @@
           <t>['news', 'local', 'central', '2805784']</t>
         </is>
       </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>06 ส.ค. 2567 05:02 น.</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -9663,6 +12373,11 @@
           <t>['news', 'local', 'northeast', '2805738']</t>
         </is>
       </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>05 ส.ค. 2567 18:59 น.</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -9680,6 +12395,11 @@
           <t>['news', 'local', 'central', '2805620']</t>
         </is>
       </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>05 ส.ค. 2567 12:24 น.</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -9697,6 +12417,11 @@
           <t>['news', 'local', 'central', '2804616']</t>
         </is>
       </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>01 ส.ค. 2567 05:20 น.</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -9714,6 +12439,11 @@
           <t>['news', 'local', 'central', '2804387']</t>
         </is>
       </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>31 ก.ค. 2567 09:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -9731,6 +12461,11 @@
           <t>['news', 'local', 'central', '2804278']</t>
         </is>
       </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>30 ก.ค. 2567 20:52 น.</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -9748,6 +12483,11 @@
           <t>['news', 'local', 'central', '2804117']</t>
         </is>
       </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>30 ก.ค. 2567 08:19 น.</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -9765,6 +12505,11 @@
           <t>['news', 'local', 'east', '2803892']</t>
         </is>
       </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>28 ก.ค. 2567 18:58 น.</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -9782,6 +12527,11 @@
           <t>['news', 'local', 'east', '2803780']</t>
         </is>
       </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>28 ก.ค. 2567 11:04 น.</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -9799,6 +12549,11 @@
           <t>['news', 'local', 'central', '2802827']</t>
         </is>
       </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>24 ก.ค. 2567 10:03 น.</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -9816,6 +12571,11 @@
           <t>['news', 'local', 'south', '2797251']</t>
         </is>
       </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>01 ก.ค. 2567 05:09 น.</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -9833,6 +12593,11 @@
           <t>['news', 'local', 'bangkok', '2794341']</t>
         </is>
       </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>19 มิ.ย. 2567 08:00 น.</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -9850,6 +12615,11 @@
           <t>['news', 'local', 'east', '2770966']</t>
         </is>
       </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>16 มี.ค. 2567 10:55 น.</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -9867,6 +12637,11 @@
           <t>['news', 'local', '2762440']</t>
         </is>
       </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>12 ก.พ. 2567 05:14 น.</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -9882,6 +12657,11 @@
       <c r="C556" t="inlineStr">
         <is>
           <t>['news', 'local', 'central', '2762435']</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>12 ก.พ. 2567 05:12 น.</t>
         </is>
       </c>
     </row>
